--- a/2021Toy/Assets/Resources/StaticData.xlsx
+++ b/2021Toy/Assets/Resources/StaticData.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2021_unityP\toy\2021Toy\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5903823-758C-4D15-A619-3B951C4EB07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD65760-58CC-44F7-B2FD-70D1336E9F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12810" yWindow="1575" windowWidth="14970" windowHeight="12210" xr2:uid="{220719FA-7F7C-45CC-BB0C-19F911BABE8E}"/>
+    <workbookView xWindow="10905" yWindow="4245" windowWidth="14970" windowHeight="12210" xr2:uid="{220719FA-7F7C-45CC-BB0C-19F911BABE8E}"/>
   </bookViews>
   <sheets>
-    <sheet name="skill" sheetId="1" r:id="rId1"/>
-    <sheet name="script" sheetId="2" r:id="rId2"/>
+    <sheet name="Skill" sheetId="1" r:id="rId1"/>
+    <sheet name="Script" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -35,19 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>need_mp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>simple</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shoot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>평타</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,19 +45,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"시작"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2번"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>needMp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
     <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
+  </si>
+  <si>
+    <t>item2</t>
+  </si>
+  <si>
+    <t>item3</t>
+  </si>
+  <si>
+    <t>없어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -116,10 +136,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -434,63 +464,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B26B86EF-6D4A-45D8-922D-76C1453EB271}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D3" s="1">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -502,13 +549,50 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CCE6854-8EC4-412F-8E20-42237A0353C2}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>